--- a/code/pony/src/main/resources/templates/入学分班成绩模板.xlsx
+++ b/code/pony/src/main/resources/templates/入学分班成绩模板.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="8865" windowWidth="22950" windowHeight="9900"/>
+    <workbookView xWindow="4935" yWindow="8865" windowWidth="22950" windowHeight="9900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="初升高" sheetId="2" r:id="rId1"/>
+    <sheet name="均量值" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">初升高!$D$1:$D$503</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>班级</t>
   </si>
@@ -41,43 +42,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理</t>
+    <t>段名</t>
+  </si>
+  <si>
+    <t>分段%</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>化学</t>
+    <t>英语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>A</t>
+  </si>
+  <si>
+    <t>(0,15]</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>(15,45]</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>(45,75]</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>(75,95]</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>(95,100]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +103,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -115,10 +145,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -391,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,30 +449,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -450,4 +458,92 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>